--- a/biology/Botanique/Camomille/Camomille.xlsx
+++ b/biology/Botanique/Camomille/Camomille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle couramment camomille plusieurs plantes ressemblant à des petites marguerites, de la famille des Astéracées. Deux espèces sont couramment utilisées pour préparer des infusions à base de plantes en médecine traditionnelle, mais il n'existe pas, en 2023, de preuves suffisantes que la camomille ait un quelconque effet sur la santé[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle couramment camomille plusieurs plantes ressemblant à des petites marguerites, de la famille des Astéracées. Deux espèces sont couramment utilisées pour préparer des infusions à base de plantes en médecine traditionnelle, mais il n'existe pas, en 2023, de preuves suffisantes que la camomille ait un quelconque effet sur la santé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot français, prononcé /kamɔmij/, est un emprunt du latin médiéval « camomilla » et s'est aussi orthographié « kamomille » au XVIIIe siècle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot français, prononcé /kamɔmij/, est un emprunt du latin médiéval « camomilla » et s'est aussi orthographié « kamomille » au XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces les plus couramment utilisées en infusion sont :
-Matricaria chamomilla, souvent appelée matricaire, camomille allemande ou « eau de jeunesse »[5],
-Chamaemelum nobile (autrefois appelée Anthemis nobilis) : camomille romaine, anglaise ou de jardin (à noter que C. nobile Treneague est normalement utilisée pour créer une pelouse de camomille)[6].
+Matricaria chamomilla, souvent appelée matricaire, camomille allemande ou « eau de jeunesse »,
+Chamaemelum nobile (autrefois appelée Anthemis nobilis) : camomille romaine, anglaise ou de jardin (à noter que C. nobile Treneague est normalement utilisée pour créer une pelouse de camomille).
 Un certain nombre d'autres noms communs d'espèces incluent le mot « camomille ». Cela ne veut pas dire qu'ils sont utilisés de la même manière que les espèces utilisées dans la tisane dite « camomille ». Les plantes dont le nom commun « camomille », de la famille des astéracées, sont :
 Matricaria chamomilla, camomille allemande
 Anthemis arvensis, camomille des champs
@@ -584,11 +600,13 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans The Tale of Peter Rabbit de Beatrix Potter (1902), Peter reçoit du thé à la camomille après avoir été poursuivi par M. McGregor[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans The Tale of Peter Rabbit de Beatrix Potter (1902), Peter reçoit du thé à la camomille après avoir été poursuivi par M. McGregor.
 Le roman de 1984 de Mary Wesley, The Camomile Lawn, présente une maison à Cornwall avec une pelouse plantée de camomille plutôt que d'herbe.
-La camomille est la fleur nationale de Russie[8]. Cet emblème végétal fait partie de la culture russe.
+La camomille est la fleur nationale de Russie. Cet emblème végétal fait partie de la culture russe.
 </t>
         </is>
       </c>
